--- a/backend/output_timetables/sem7_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable.xlsx
@@ -62,7 +62,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill/>
     </fill>
@@ -101,20 +101,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084e0c5"/>
-        <bgColor rgb="0084e0c5"/>
+        <fgColor rgb="006C5CE7"/>
+        <bgColor rgb="006C5CE7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00cd84e0"/>
-        <bgColor rgb="00cd84e0"/>
+        <fgColor rgb="00F368E0"/>
+        <bgColor rgb="00F368E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e084cd"/>
-        <bgColor rgb="00e084cd"/>
+        <fgColor rgb="001DD1A1"/>
+        <bgColor rgb="001DD1A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -125,8 +125,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00848ce0"/>
-        <bgColor rgb="00848ce0"/>
+        <fgColor rgb="008395A7"/>
+        <bgColor rgb="008395A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084e0c5"/>
+        <bgColor rgb="0084e0c5"/>
       </patternFill>
     </fill>
     <fill>
@@ -139,6 +145,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00e084e0"/>
         <bgColor rgb="00e084e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00cd84e0"/>
+        <bgColor rgb="00cd84e0"/>
       </patternFill>
     </fill>
     <fill>
@@ -157,6 +169,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00a7e084"/>
         <bgColor rgb="00a7e084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e084cd"/>
+        <bgColor rgb="00e084cd"/>
       </patternFill>
     </fill>
     <fill>
@@ -181,6 +199,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ae84e0"/>
         <bgColor rgb="00ae84e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00848ce0"/>
+        <bgColor rgb="00848ce0"/>
       </patternFill>
     </fill>
     <fill>
@@ -246,18 +270,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -336,6 +360,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,10 +1314,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1315,6 +1352,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1347,6 +1385,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1356,17 +1395,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -1384,6 +1418,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1393,11 +1428,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]
-DE451 [C205]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1407,11 +1438,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]
-DE451 [C205]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1424,6 +1451,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1456,6 +1484,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1475,17 +1504,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1493,6 +1517,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1507,36 +1532,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]
-DE451 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1551,10 +1565,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -1564,10 +1575,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1575,6 +1583,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1607,6 +1616,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1639,6 +1649,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1647,6 +1658,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1655,6 +1667,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -1667,6 +1680,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -1679,6 +1693,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -1701,8 +1716,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -1725,8 +1753,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -1735,6 +1776,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -1747,6 +1789,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -1779,6 +1822,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -1791,14 +1835,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -1811,6 +1855,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -1823,14 +1868,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -1843,6 +1888,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1855,14 +1901,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -1875,6 +1921,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -1887,14 +1934,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1907,6 +1954,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1919,14 +1967,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L404], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1939,6 +1987,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1951,14 +2000,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1971,6 +2020,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1983,14 +2033,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2003,6 +2053,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2015,14 +2066,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2035,6 +2086,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2047,14 +2099,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2067,6 +2119,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2079,14 +2132,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2099,6 +2152,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2111,14 +2165,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2131,6 +2185,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2143,14 +2198,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2163,6 +2218,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2175,14 +2231,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L403], Thu 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2195,6 +2251,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -2207,14 +2264,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L404], Thu 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2227,6 +2284,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -2239,14 +2297,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -2259,6 +2317,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -2271,14 +2330,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -2291,10 +2350,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2308,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,10 +2378,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2355,6 +2416,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2387,6 +2449,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2396,17 +2459,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -2424,6 +2482,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2433,11 +2492,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]
-DE451 [C205]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -2447,11 +2502,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]
-DE451 [C205]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2464,6 +2515,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2496,6 +2548,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2515,17 +2568,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2533,6 +2581,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2547,36 +2596,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]
-DE451 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2591,10 +2629,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2604,10 +2639,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2615,6 +2647,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2647,6 +2680,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2679,6 +2713,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2687,6 +2722,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2695,6 +2731,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -2707,6 +2744,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -2719,6 +2757,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -2741,8 +2780,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -2765,8 +2817,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -2775,6 +2840,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -2787,6 +2853,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -2819,6 +2886,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -2831,14 +2899,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -2851,6 +2919,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -2863,14 +2932,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -2883,6 +2952,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -2895,14 +2965,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -2915,6 +2985,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -2927,14 +2998,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2947,6 +3018,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2959,14 +3031,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2979,6 +3051,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2991,14 +3064,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C004], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3011,6 +3084,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3023,14 +3097,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L402], Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3043,6 +3117,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3055,14 +3130,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [C004], Wed 10:30-12:00 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3075,6 +3150,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3087,14 +3163,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L402], Wed 10:30-12:00 [L402]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3107,6 +3183,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3119,14 +3196,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L403], Wed 10:30-12:00 [L403]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3139,6 +3216,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3151,14 +3229,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L404], Wed 10:30-12:00 [L404]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3171,6 +3249,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3183,14 +3262,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3203,6 +3282,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3215,14 +3295,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3235,6 +3315,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3247,14 +3328,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3267,6 +3348,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -3279,14 +3361,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -3299,6 +3381,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -3311,14 +3394,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -3331,10 +3414,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3348,7 +3432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3358,10 +3442,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3395,6 +3480,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3427,6 +3513,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3436,17 +3523,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -3464,6 +3546,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3473,10 +3556,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -3486,10 +3566,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3502,6 +3579,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3534,6 +3612,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3553,17 +3632,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3571,6 +3645,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3585,35 +3660,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3628,10 +3693,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3641,10 +3703,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3652,6 +3711,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3684,6 +3744,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3716,6 +3777,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3724,6 +3786,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3732,6 +3795,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -3744,6 +3808,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -3756,6 +3821,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -3778,8 +3844,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -3802,8 +3881,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -3812,6 +3904,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -3824,6 +3917,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -3856,6 +3950,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -3868,14 +3963,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -3888,6 +3983,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -3900,14 +3996,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -3920,6 +4016,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -3932,14 +4029,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -3952,6 +4049,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -3964,14 +4062,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3984,6 +4082,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3996,14 +4095,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L404], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -4016,6 +4115,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -4028,14 +4128,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4048,6 +4148,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -4060,14 +4161,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4080,6 +4181,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -4092,14 +4194,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4112,6 +4214,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -4124,14 +4227,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4144,6 +4247,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -4156,14 +4260,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4176,6 +4280,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -4188,14 +4293,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4208,6 +4313,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -4220,14 +4326,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4240,6 +4346,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -4252,14 +4359,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L403], Thu 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4272,6 +4379,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -4284,14 +4392,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L404], Thu 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -4304,6 +4412,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -4316,14 +4425,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -4336,6 +4445,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -4348,14 +4458,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -4368,10 +4478,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -4385,7 +4496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4395,10 +4506,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4432,6 +4544,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -4464,6 +4577,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -4473,17 +4587,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -4501,6 +4610,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -4510,10 +4620,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -4523,10 +4630,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -4539,6 +4643,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -4571,6 +4676,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -4590,17 +4696,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -4608,6 +4709,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -4622,35 +4724,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -4665,10 +4757,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -4678,10 +4767,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -4689,6 +4775,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -4721,6 +4808,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -4753,6 +4841,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -4761,6 +4850,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -4769,6 +4859,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -4781,6 +4872,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -4793,6 +4885,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -4815,8 +4908,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -4839,8 +4945,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -4849,6 +4968,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -4861,6 +4981,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -4893,6 +5014,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -4905,14 +5027,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -4925,6 +5047,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -4937,14 +5060,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -4957,6 +5080,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -4969,14 +5093,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -4989,6 +5113,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -5001,14 +5126,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -5021,6 +5146,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -5033,14 +5159,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -5053,6 +5179,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -5065,14 +5192,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C004], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -5085,6 +5212,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -5097,14 +5225,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L402], Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -5117,6 +5245,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -5129,14 +5258,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [C004], Wed 10:30-12:00 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -5149,6 +5278,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -5161,14 +5291,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L402], Wed 10:30-12:00 [L402]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -5181,6 +5311,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -5193,14 +5324,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L403], Wed 10:30-12:00 [L403]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -5213,6 +5344,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -5225,14 +5357,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L404], Wed 10:30-12:00 [L404]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -5245,6 +5377,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -5257,14 +5390,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -5277,6 +5410,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -5289,14 +5423,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -5309,6 +5443,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -5321,14 +5456,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -5341,6 +5476,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -5353,14 +5489,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -5373,6 +5509,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -5385,14 +5522,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -5405,10 +5542,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -5422,7 +5560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5432,10 +5570,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5469,6 +5608,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -5501,6 +5641,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -5510,17 +5651,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -5538,6 +5674,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -5547,10 +5684,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -5560,10 +5694,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -5576,6 +5707,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -5608,6 +5740,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -5627,17 +5760,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -5645,6 +5773,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -5659,35 +5788,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -5702,10 +5821,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -5715,10 +5831,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -5726,6 +5839,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -5758,6 +5872,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -5790,6 +5905,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -5798,6 +5914,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -5806,6 +5923,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -5818,6 +5936,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -5830,6 +5949,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -5852,8 +5972,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -5876,8 +6009,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -5886,6 +6032,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -5898,6 +6045,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -5930,6 +6078,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -5942,14 +6091,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -5962,6 +6111,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -5974,14 +6124,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -5994,6 +6144,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -6006,14 +6157,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -6026,6 +6177,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -6038,14 +6190,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -6058,6 +6210,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -6070,14 +6223,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L404], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -6090,6 +6243,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -6102,14 +6256,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -6122,6 +6276,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -6134,14 +6289,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -6154,6 +6309,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -6166,14 +6322,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -6186,6 +6342,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -6198,14 +6355,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -6218,6 +6375,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -6230,14 +6388,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -6250,6 +6408,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -6262,14 +6421,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -6282,6 +6441,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -6294,14 +6454,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -6314,6 +6474,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -6326,14 +6487,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L403], Thu 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -6346,6 +6507,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -6358,14 +6520,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L404], Thu 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -6378,6 +6540,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -6390,14 +6553,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -6410,6 +6573,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -6422,14 +6586,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -6442,10 +6606,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -6459,7 +6624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6469,10 +6634,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6506,6 +6672,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -6538,6 +6705,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -6547,17 +6715,12 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -6575,6 +6738,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -6584,10 +6748,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -6597,10 +6758,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>EC462 [C202]
-EC465 [C203]
-ASD352 [C303]
-PH454 [C204]</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -6613,6 +6771,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -6645,6 +6804,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -6664,17 +6824,12 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>DS456 [C202]
-EC456 [C203]
-DS401 [C204]</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>CS457 [C202]
-DS458 [C203]
-CS468 [C204]
-CS473 [C205]</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -6682,6 +6837,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -6696,35 +6852,25 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>DS456 (Tutorial) [C202]
-EC456 (Tutorial) [C203]
-DS401 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>CS457 (Tutorial) [C202]
-DS458 (Tutorial) [C203]
-CS468 (Tutorial) [C204]
-CS473 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>EC462 (Tutorial) [C202]
-EC465 (Tutorial) [C203]
-ASD352 (Tutorial) [C303]
-PH454 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>CS470 (Tutorial) [C202]
-DS102 (Tutorial) [C203]
-MA452 (Tutorial) [C204]
-EC463 (Tutorial) [C205]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B9 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -6739,10 +6885,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -6752,10 +6895,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>CS470 [C202]
-DS102 [C203]
-MA452 [C204]
-EC463 [C205]</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -6763,6 +6903,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -6795,6 +6936,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -6827,6 +6969,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -6835,6 +6978,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -6843,6 +6987,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -6855,6 +7000,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
@@ -6867,6 +7013,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
@@ -6889,8 +7036,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="17" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
@@ -6913,8 +7073,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -6923,6 +7096,7 @@
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
@@ -6935,6 +7109,7 @@
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
@@ -6967,6 +7142,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
@@ -6979,14 +7155,14 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>DS456</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
@@ -6999,6 +7175,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
@@ -7011,14 +7188,14 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -7031,6 +7208,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -7043,14 +7221,14 @@
           <t>health care data analytics</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>DS401</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -7063,6 +7241,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -7075,14 +7254,14 @@
           <t>DevOPS and its application</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>CS457</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -7095,6 +7274,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -7107,14 +7287,14 @@
           <t>Agentic AI</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr">
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>DS458</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -7127,6 +7307,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -7139,14 +7320,14 @@
           <t>Information retrieval</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="C25" s="24" t="inlineStr">
         <is>
           <t>CS468</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C004], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -7159,6 +7340,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -7171,14 +7353,14 @@
           <t>Cloud SRE and security</t>
         </is>
       </c>
-      <c r="C26" s="23" t="inlineStr">
+      <c r="C26" s="25" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [L402], Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -7191,6 +7373,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -7203,14 +7386,14 @@
           <t>Generative AI</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t>EC462</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
+          <t>Mon 10:30-12:00 [C004], Wed 10:30-12:00 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -7223,6 +7406,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -7235,14 +7419,14 @@
           <t>Hands on CMOS analog and RF circuit design</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t>EC465</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
+          <t>Mon 10:30-12:00 [L402], Wed 10:30-12:00 [L402]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -7255,6 +7439,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -7267,14 +7452,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C303], Wed 10:30-12:00 [C303]</t>
+          <t>Mon 10:30-12:00 [L403], Wed 10:30-12:00 [L403]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -7287,6 +7472,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -7299,14 +7485,14 @@
           <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="29" t="inlineStr">
         <is>
           <t>PH454</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C204], Wed 10:30-12:00 [C204]</t>
+          <t>Mon 10:30-12:00 [L404], Wed 10:30-12:00 [L404]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -7319,6 +7505,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -7331,14 +7518,14 @@
           <t>Usability testing</t>
         </is>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="30" t="inlineStr">
         <is>
           <t>DE451</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C205], Wed 10:30-12:00 [C205]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -7351,6 +7538,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -7363,14 +7551,14 @@
           <t>AI for cybersecurity</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="31" t="inlineStr">
         <is>
           <t>CS470</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -7383,6 +7571,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -7395,14 +7584,14 @@
           <t>Finance and accounting</t>
         </is>
       </c>
-      <c r="C33" s="28" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>DS102</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -7415,6 +7604,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr">
@@ -7427,14 +7617,14 @@
           <t>Operation research</t>
         </is>
       </c>
-      <c r="C34" s="29" t="inlineStr">
+      <c r="C34" s="33" t="inlineStr">
         <is>
           <t>MA452</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -7447,6 +7637,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
@@ -7459,14 +7650,14 @@
           <t>Energy efficient neural networks</t>
         </is>
       </c>
-      <c r="C35" s="30" t="inlineStr">
+      <c r="C35" s="34" t="inlineStr">
         <is>
           <t>EC463</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C205], Thu 15:30-17:00 [C205]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -7479,10 +7670,11 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G35" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem7_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable.xlsx
@@ -1842,12 +1842,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 13:00-14:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1974,12 +1974,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L404], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2007,12 +2007,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C302]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2238,12 +2238,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L403], Thu 15:30-17:00 [L403]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L404], Thu 15:30-17:00 [L404]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -2906,12 +2906,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3038,12 +3038,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3071,12 +3071,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C004], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L402], Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3137,12 +3137,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C004], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L402], Wed 10:30-12:00 [L402]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L403], Wed 10:30-12:00 [L403]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L404], Wed 10:30-12:00 [L404]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3269,12 +3269,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3302,12 +3302,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3335,12 +3335,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -3970,12 +3970,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 13:00-14:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -4036,12 +4036,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4102,12 +4102,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L404], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4135,12 +4135,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4333,12 +4333,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C302]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4366,12 +4366,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L403], Thu 15:30-17:00 [L403]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L404], Thu 15:30-17:00 [L404]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -4465,12 +4465,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -5067,12 +5067,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -5100,12 +5100,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C004], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -5232,12 +5232,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L402], Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -5265,12 +5265,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C004], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L402], Wed 10:30-12:00 [L402]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -5331,12 +5331,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L403], Wed 10:30-12:00 [L403]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L404], Wed 10:30-12:00 [L404]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -5430,12 +5430,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -5496,12 +5496,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -5529,12 +5529,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -6098,12 +6098,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 13:00-14:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -6131,12 +6131,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 13:00-14:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -6230,12 +6230,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L404], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -6263,12 +6263,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -6296,12 +6296,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -6329,12 +6329,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L405], Wed 10:30-12:00 [L405]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -6362,12 +6362,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L406], Wed 10:30-12:00 [L406]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -6395,12 +6395,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L407], Wed 10:30-12:00 [L407]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -6428,12 +6428,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L408], Wed 10:30-12:00 [L408]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -6461,12 +6461,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C302], Wed 10:30-12:00 [C302]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L403], Thu 15:30-17:00 [L403]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -6527,12 +6527,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L404], Thu 15:30-17:00 [L404]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -6560,12 +6560,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L405], Thu 15:30-17:00 [L405]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -6593,12 +6593,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L406], Thu 15:30-17:00 [L406]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -7162,12 +7162,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -7228,12 +7228,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -7261,12 +7261,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -7294,12 +7294,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C004], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -7360,12 +7360,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [L402], Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C004], Wed 10:30-12:00 [C004]</t>
+          <t>Mon 10:30-12:00 [C101], Wed 10:30-12:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L402], Wed 10:30-12:00 [L402]</t>
+          <t>Mon 10:30-12:00 [C102], Wed 10:30-12:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -7459,12 +7459,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L403], Wed 10:30-12:00 [L403]</t>
+          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -7492,12 +7492,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [L404], Wed 10:30-12:00 [L404]</t>
+          <t>Mon 10:30-12:00 [C202], Wed 10:30-12:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -7525,12 +7525,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00 [C104], Wed 10:30-12:00 [C104]</t>
+          <t>Mon 10:30-12:00 [C203], Wed 10:30-12:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -7558,12 +7558,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L407], Thu 15:30-17:00 [L407]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -7591,12 +7591,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L408], Thu 15:30-17:00 [L408]</t>
+          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C004], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F34" s="8" t="inlineStr">
@@ -7657,12 +7657,12 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
+          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable.xlsx
@@ -790,7 +790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,7 +802,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -842,6 +843,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -869,6 +875,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS498 (0-0-0-8-2 | Full Sem)</t>
         </is>
       </c>
@@ -903,6 +914,11 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -930,6 +946,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -957,6 +978,11 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>CS457 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -984,6 +1010,11 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
           <t>CS468 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1011,6 +1042,11 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
           <t>CS470 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1038,6 +1074,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS473 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1065,6 +1106,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>DE451 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1092,6 +1138,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>DS102 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1119,6 +1170,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>DS401 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1146,6 +1202,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>DS456 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1173,6 +1234,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>DS458 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1200,6 +1266,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC456 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1227,6 +1298,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC462 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1254,6 +1330,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>EC463 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1281,6 +1362,11 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>EC465 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1308,6 +1394,11 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
           <t>MA452 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1335,15 +1426,20 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
           <t>PH454 (3-1-0-0-4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1520,10 +1616,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>270</v>
+        <v>187.5</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>37.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2132,10 +2228,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2166,10 +2262,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2452,10 +2548,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2486,10 +2582,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2520,10 +2616,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2814,12 +2910,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -2833,7 +2929,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3030,12 +3126,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3049,7 +3145,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3246,12 +3342,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -3265,7 +3361,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3462,12 +3558,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -3481,7 +3577,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3678,12 +3774,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -3697,7 +3793,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4439,7 +4535,7 @@
         </is>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -4459,7 +4555,7 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4493,21 +4589,21 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -4517,7 +4613,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4527,7 +4623,7 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4629,21 +4725,21 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -4653,7 +4749,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4663,7 +4759,7 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4877,7 +4973,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4935,7 +5031,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -4953,7 +5049,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5011,7 +5107,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5029,7 +5125,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5087,7 +5183,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5105,7 +5201,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5153,15 +5249,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -5177,7 +5277,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5543,7 +5643,7 @@
         </is>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -5563,7 +5663,7 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5597,21 +5697,21 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5621,7 +5721,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5631,7 +5731,7 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5733,21 +5833,21 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -5757,7 +5857,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5767,7 +5867,7 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6039,7 +6139,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6057,7 +6157,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6133,7 +6233,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6209,7 +6309,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6267,7 +6367,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -6285,7 +6385,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6343,7 +6443,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -6361,7 +6461,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6419,7 +6519,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6437,7 +6537,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6495,7 +6595,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6513,7 +6613,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6571,7 +6671,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6589,7 +6689,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6665,7 +6765,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6727,7 +6827,7 @@
         </is>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -6747,7 +6847,7 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6781,21 +6881,21 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -6805,7 +6905,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6815,7 +6915,7 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6917,21 +7017,21 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -6941,7 +7041,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6951,7 +7051,7 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6995,7 +7095,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -7013,7 +7113,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7071,7 +7171,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -7089,7 +7189,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7147,7 +7247,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -7165,7 +7265,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7241,7 +7341,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7299,7 +7399,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -7317,7 +7417,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7393,7 +7493,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7451,7 +7551,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -7469,7 +7569,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -7527,7 +7627,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -7545,7 +7645,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -7621,7 +7721,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7987,7 +8087,7 @@
         </is>
       </c>
       <c r="J73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -8007,7 +8107,7 @@
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -8041,21 +8141,21 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -8065,7 +8165,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8075,7 +8175,7 @@
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -8177,21 +8277,21 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -8201,7 +8301,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8211,7 +8311,7 @@
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -8563,7 +8663,7 @@
         </is>
       </c>
       <c r="J81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -8583,7 +8683,7 @@
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8694,7 +8794,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8713,7 +8813,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -8910,7 +9010,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8929,7 +9029,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9126,7 +9226,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -9145,7 +9245,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9342,7 +9442,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -9361,7 +9461,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9558,7 +9658,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9577,7 +9677,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -10305,21 +10405,21 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10329,7 +10429,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -10339,7 +10439,7 @@
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -10757,7 +10857,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -10815,7 +10915,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -10833,7 +10933,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -10891,7 +10991,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -10909,7 +11009,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -10967,7 +11067,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -10985,7 +11085,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -11033,15 +11133,19 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
@@ -11057,7 +11161,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11409,21 +11513,21 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11433,7 +11537,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -11443,7 +11547,7 @@
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -11919,7 +12023,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -11937,7 +12041,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -12013,7 +12117,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -12089,7 +12193,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -12147,7 +12251,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -12165,7 +12269,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12223,7 +12327,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -12241,7 +12345,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12299,7 +12403,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J132" t="b">
@@ -12317,7 +12421,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -12375,7 +12479,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -12393,7 +12497,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -12451,7 +12555,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J134" t="b">
@@ -12469,7 +12573,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -12545,7 +12649,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -12593,21 +12697,21 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12617,7 +12721,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -12627,7 +12731,7 @@
       </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -12875,7 +12979,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J140" t="b">
@@ -12893,7 +12997,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -12951,7 +13055,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J141" t="b">
@@ -12969,7 +13073,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -13027,7 +13131,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J142" t="b">
@@ -13045,7 +13149,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -13121,7 +13225,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -13179,7 +13283,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -13197,7 +13301,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13273,7 +13377,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -13331,7 +13435,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J146" t="b">
@@ -13349,7 +13453,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13407,7 +13511,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -13425,7 +13529,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13501,7 +13605,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -13853,21 +13957,21 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -13877,7 +13981,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13887,7 +13991,7 @@
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -14429,21 +14533,21 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -14453,7 +14557,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -14463,7 +14567,7 @@
       </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14515,7 +14619,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C302, C303</t>
+          <t>C004, C101, L404</t>
         </is>
       </c>
     </row>
@@ -14532,7 +14636,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C303, C305</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -14549,7 +14653,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C104, C304</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -14566,7 +14670,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101, C205</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14687,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14704,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14721,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203, C303</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -14634,7 +14738,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, C204, C304</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14755,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004, C101, C203</t>
+          <t>C004, C101, L406</t>
         </is>
       </c>
     </row>
@@ -14668,7 +14772,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -14685,7 +14789,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C202, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -14702,7 +14806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -14719,7 +14823,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, L406</t>
         </is>
       </c>
     </row>
@@ -15323,12 +15427,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -15356,12 +15460,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -15389,12 +15493,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -15422,12 +15526,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -15455,12 +15559,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -15488,12 +15592,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -15521,12 +15625,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -15559,7 +15663,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -15592,7 +15696,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -15625,7 +15729,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -15658,7 +15762,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -15691,7 +15795,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -16387,12 +16491,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -16420,12 +16524,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -16453,12 +16557,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -16486,12 +16590,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -16519,12 +16623,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -16552,12 +16656,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -16585,12 +16689,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -16623,7 +16727,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -16656,7 +16760,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -16689,7 +16793,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -16722,7 +16826,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -16755,7 +16859,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -17451,12 +17555,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -17484,12 +17588,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -17517,12 +17621,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -17550,12 +17654,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -17583,12 +17687,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -17616,12 +17720,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -17649,12 +17753,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -17687,7 +17791,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -17720,7 +17824,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -17753,7 +17857,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -17786,7 +17890,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -17819,7 +17923,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -18515,12 +18619,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -18548,12 +18652,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -18581,12 +18685,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -18614,12 +18718,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -18647,12 +18751,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -18680,12 +18784,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -18713,12 +18817,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -18751,7 +18855,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -18784,7 +18888,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -18817,7 +18921,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -18850,7 +18954,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -18883,7 +18987,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -19579,12 +19683,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -19612,12 +19716,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -19645,12 +19749,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -19678,12 +19782,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -19711,12 +19815,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -19744,12 +19848,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -19777,12 +19881,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -19815,7 +19919,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -19848,7 +19952,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -19881,7 +19985,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -19914,7 +20018,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -19947,7 +20051,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -20643,12 +20747,12 @@
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C303]</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
@@ -20676,12 +20780,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C305]</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -20709,12 +20813,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C001]</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -20742,12 +20846,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -20775,12 +20879,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 09:00-10:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -20808,12 +20912,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 09:00-10:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C205]</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -20841,12 +20945,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C203], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 09:00-10:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C302]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -20879,7 +20983,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C205]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -20912,7 +21016,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -20945,7 +21049,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -20978,7 +21082,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -21011,7 +21115,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -21585,27 +21689,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [L405]</t>
+          <t>Mini Project [C302]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [L405]</t>
+          <t>0-0-0-8-2 [C302]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [L405]</t>
+          <t>Full Sem [C302]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [L405]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [L405]</t>
+          <t>0/0 [C302]</t>
         </is>
       </c>
     </row>
@@ -21769,27 +21873,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application [L406]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457 [L406]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -21801,27 +21905,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application [L406]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457 [L406]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -21833,27 +21937,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application [L406]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457 [L406]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -21865,27 +21969,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DevOPS and its application [C004]</t>
+          <t>DevOPS and its application [L406]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS457 [C004]</t>
+          <t>CS457 [L406]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 09:00-10:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22057,27 +22161,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity [L406]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470 [L406]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22089,27 +22193,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity [L406]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470 [L406]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22121,27 +22225,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity [L406]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470 [L406]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22153,27 +22257,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AI for cybersecurity [C004]</t>
+          <t>AI for cybersecurity [L406]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CS470 [C004]</t>
+          <t>CS470 [L406]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [C004]</t>
+          <t>Tue 15:30-17:00 [C101], Thu 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22604,27 +22708,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [L406]</t>
+          <t>Mini Project [C303]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [L406]</t>
+          <t>0-0-0-8-2 [C303]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [L406]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [L406]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [L406]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -22692,27 +22796,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [C004]</t>
+          <t>Cybersecurity techniques [L404]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DS456 [C004]</t>
+          <t>DS456 [L404]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L404]</t>
         </is>
       </c>
     </row>
@@ -22724,27 +22828,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [C004]</t>
+          <t>Cybersecurity techniques [L404]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DS456 [C004]</t>
+          <t>DS456 [L404]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L404]</t>
         </is>
       </c>
     </row>
@@ -22756,27 +22860,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cybersecurity techniques [C004]</t>
+          <t>Cybersecurity techniques [L404]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DS456 [C004]</t>
+          <t>DS456 [L404]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30 [C004]</t>
+          <t>Tue 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L404]</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable.xlsx
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -2857,7 +2857,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2910,12 +2910,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -2929,7 +2929,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -3001,7 +3001,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3073,7 +3073,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3126,12 +3126,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3145,7 +3145,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -3269,19 +3269,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -3297,7 +3293,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3345,17 +3341,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -3373,7 +3369,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3449,7 +3445,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3525,7 +3521,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3583,7 +3579,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -3601,7 +3597,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3659,7 +3655,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -3677,7 +3673,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3725,15 +3721,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3821,7 +3821,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3889,7 +3889,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3957,7 +3957,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4001,19 +4001,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -4025,7 +4021,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4069,17 +4065,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4093,7 +4089,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4137,19 +4133,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -4161,7 +4153,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4215,7 +4207,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -4233,7 +4225,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4291,7 +4283,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -4309,7 +4301,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4385,7 +4377,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4443,7 +4435,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -4461,7 +4453,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4823,7 +4815,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -4841,7 +4833,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4899,7 +4891,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -4917,7 +4909,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4975,7 +4967,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -4993,7 +4985,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5046,7 +5038,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5065,7 +5057,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5114,7 +5106,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5133,7 +5125,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5182,12 +5174,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5201,7 +5193,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5245,19 +5237,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -5269,7 +5257,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5313,17 +5301,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -5337,7 +5325,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5381,19 +5369,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -5405,7 +5389,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5477,7 +5461,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5535,7 +5519,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -5553,7 +5537,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5629,7 +5613,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5687,7 +5671,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -5705,7 +5689,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5781,7 +5765,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6085,7 +6069,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6161,7 +6145,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6237,7 +6221,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6313,7 +6297,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6366,7 +6350,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6385,7 +6369,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6434,7 +6418,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6453,7 +6437,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6502,12 +6486,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6521,7 +6505,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6570,12 +6554,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6589,7 +6573,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6633,17 +6617,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6657,7 +6641,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6701,19 +6685,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -6725,7 +6705,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6769,17 +6749,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -6797,7 +6777,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6873,7 +6853,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6949,7 +6929,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -7025,7 +7005,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -7083,7 +7063,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -7101,7 +7081,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -7177,7 +7157,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7230,7 +7210,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7253,7 +7233,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7311,7 +7291,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -7329,7 +7309,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7387,7 +7367,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -7405,7 +7385,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7539,7 +7519,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -7557,7 +7537,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -7633,7 +7613,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -7709,7 +7689,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7762,7 +7742,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -7781,7 +7761,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -7830,7 +7810,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7849,7 +7829,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7898,12 +7878,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -7917,7 +7897,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7966,12 +7946,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -7985,7 +7965,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -8029,17 +8009,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -8053,7 +8033,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8097,19 +8077,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -8121,7 +8097,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8470,7 +8446,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8489,7 +8465,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -8538,7 +8514,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8557,7 +8533,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -8606,12 +8582,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -8625,7 +8601,7 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -8674,12 +8650,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -8693,7 +8669,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8746,12 +8722,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -8765,7 +8741,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -8818,12 +8794,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -8837,7 +8813,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -8890,12 +8866,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -8909,7 +8885,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8962,12 +8938,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -8981,7 +8957,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9034,7 +9010,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -9057,7 +9033,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9105,19 +9081,15 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="b">
         <v>0</v>
       </c>
@@ -9133,7 +9105,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -9181,17 +9153,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -9209,7 +9181,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9285,7 +9257,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -9361,7 +9333,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -9419,7 +9391,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -9437,7 +9409,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9495,7 +9467,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -9513,7 +9485,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -9561,15 +9533,19 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
@@ -9585,7 +9561,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -9638,7 +9614,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9657,7 +9633,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -9706,7 +9682,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9725,7 +9701,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9769,19 +9745,15 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="b">
         <v>0</v>
       </c>
@@ -9793,7 +9765,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9861,7 +9833,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9997,7 +9969,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -10051,7 +10023,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -10069,7 +10041,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -10127,7 +10099,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -10145,7 +10117,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -10221,7 +10193,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -10279,7 +10251,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -10297,7 +10269,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -10659,7 +10631,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -10677,7 +10649,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -10735,7 +10707,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J110" t="b">
@@ -10753,7 +10725,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -10811,7 +10783,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -10829,7 +10801,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -10882,7 +10854,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10901,7 +10873,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -10950,7 +10922,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10969,7 +10941,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -11013,19 +10985,15 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="b">
         <v>0</v>
       </c>
@@ -11037,7 +11005,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -11105,7 +11073,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11241,7 +11209,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -11313,7 +11281,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -11371,7 +11339,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J119" t="b">
@@ -11389,7 +11357,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -11465,7 +11433,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -11523,7 +11491,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J121" t="b">
@@ -11541,7 +11509,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -11617,7 +11585,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -11921,7 +11889,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -11997,7 +11965,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -12073,7 +12041,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -12149,7 +12117,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -12202,7 +12170,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -12221,7 +12189,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12270,7 +12238,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12289,7 +12257,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12333,19 +12301,15 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="b">
         <v>0</v>
       </c>
@@ -12357,7 +12321,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -12401,17 +12365,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -12425,7 +12389,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -12561,7 +12525,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -12605,17 +12569,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J136" t="b">
@@ -12633,7 +12597,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -12709,7 +12673,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -12785,7 +12749,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -12861,7 +12825,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -12919,7 +12883,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J140" t="b">
@@ -12937,7 +12901,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -13013,7 +12977,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -13066,7 +13030,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -13089,7 +13053,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -13147,7 +13111,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J143" t="b">
@@ -13165,7 +13129,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -13223,7 +13187,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -13241,7 +13205,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13375,7 +13339,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J146" t="b">
@@ -13393,7 +13357,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13469,7 +13433,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13545,7 +13509,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -13598,7 +13562,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -13617,7 +13581,7 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13666,7 +13630,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13685,7 +13649,7 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -13729,19 +13693,15 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="b">
         <v>0</v>
       </c>
@@ -13753,7 +13713,7 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13797,17 +13757,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J152" t="b">
@@ -13821,7 +13781,7 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13957,7 +13917,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -14306,7 +14266,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14325,7 +14285,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -14374,7 +14334,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14393,7 +14353,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -14437,19 +14397,15 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="b">
         <v>0</v>
       </c>
@@ -14461,7 +14417,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -14523,7 +14479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L404, L408</t>
+          <t>C001, C101, C102, C305</t>
         </is>
       </c>
     </row>
@@ -14540,7 +14496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, L405</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14513,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, L406</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -14574,7 +14530,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, C205, L406, L408</t>
+          <t>C004, C101, L406</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14547,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -14608,7 +14564,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C203, C302, C303</t>
+          <t>C104, L407</t>
         </is>
       </c>
     </row>
@@ -14625,7 +14581,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C303, C305</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -14642,7 +14598,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C304</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14615,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C204, L404, L406, L408</t>
+          <t>C001, C101, L402, L403, L405</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14632,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, L402, L405</t>
+          <t>C102, L404, L406</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14649,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C302, L404, L406</t>
+          <t>C104, L405, L407</t>
         </is>
       </c>
     </row>
@@ -14710,7 +14666,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C303, L405, L407</t>
+          <t>C202, L406, L408</t>
         </is>
       </c>
     </row>
@@ -14727,7 +14683,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C101, C102, C305, L406, L408</t>
+          <t>C001, C101, C102, C305, L402</t>
         </is>
       </c>
     </row>
@@ -14744,7 +14700,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C104, C203</t>
+          <t>C001, C102, C204</t>
         </is>
       </c>
     </row>
@@ -14761,7 +14717,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C202, C204</t>
+          <t>C002, C104, C302</t>
         </is>
       </c>
     </row>
@@ -14778,7 +14734,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C203, C205</t>
+          <t>C003, C202, C303</t>
         </is>
       </c>
     </row>
@@ -15430,12 +15386,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -15463,12 +15419,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -15496,12 +15452,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -15529,12 +15485,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -15633,7 +15589,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -15760,7 +15716,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -15793,7 +15749,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -15826,7 +15782,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -16494,12 +16450,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -16527,12 +16483,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -16560,12 +16516,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -16593,12 +16549,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -16697,7 +16653,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -16824,7 +16780,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -16857,7 +16813,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -16890,7 +16846,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -17558,12 +17514,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -17591,12 +17547,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -17624,12 +17580,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -17657,12 +17613,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -17761,7 +17717,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -17888,7 +17844,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -17921,7 +17877,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -17954,7 +17910,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -18622,12 +18578,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -18655,12 +18611,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -18688,12 +18644,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -18721,12 +18677,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -18825,7 +18781,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -18952,7 +18908,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -18985,7 +18941,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -19018,7 +18974,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -19686,12 +19642,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -19719,12 +19675,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -19752,12 +19708,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -19785,12 +19741,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -19889,7 +19845,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -20016,7 +19972,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -20049,7 +20005,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -20082,7 +20038,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -20750,12 +20706,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [C002]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -20783,12 +20739,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L402]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -20816,12 +20772,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -20849,12 +20805,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -20953,7 +20909,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -21080,7 +21036,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C104], Thu 15:30-17:00 [C104]</t>
+          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -21113,7 +21069,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C202], Thu 15:30-17:00 [C202]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -21146,7 +21102,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C203], Thu 15:30-17:00 [C203]</t>
+          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -21593,27 +21549,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [L403]</t>
+          <t>Mini Project [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [L403]</t>
+          <t>0-0-0-8-2 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [L403]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [L403]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [L403]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -22612,27 +22568,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [L404]</t>
+          <t>Mini Project [C104]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [L404]</t>
+          <t>0-0-0-8-2 [C104]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [L404]</t>
+          <t>Full Sem [C104]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [L404]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [L404]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_timetable.xlsx
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2833,12 +2833,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2857,7 +2857,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2929,7 +2929,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2977,12 +2977,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3001,7 +3001,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3073,7 +3073,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3145,7 +3145,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -3269,15 +3269,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -3293,7 +3297,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3341,12 +3345,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3369,7 +3373,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3802,7 +3806,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3821,7 +3825,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3870,7 +3874,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3889,7 +3893,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3938,12 +3942,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3957,7 +3961,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4001,15 +4005,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -4021,7 +4029,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4065,17 +4073,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4089,7 +4097,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4133,15 +4141,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -4153,7 +4165,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5038,7 +5050,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5057,7 +5069,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5106,7 +5118,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5125,7 +5137,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5174,12 +5186,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5193,7 +5205,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5237,15 +5249,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
@@ -5257,7 +5273,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5301,17 +5317,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -5325,7 +5341,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5369,15 +5385,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -5389,7 +5409,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6069,7 +6089,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6122,12 +6142,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -6145,7 +6165,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6198,12 +6218,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -6221,7 +6241,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6274,12 +6294,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -6297,7 +6317,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6350,7 +6370,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6369,7 +6389,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6418,7 +6438,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6437,7 +6457,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6486,12 +6506,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -6505,7 +6525,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -6559,7 +6579,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6573,7 +6593,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6617,17 +6637,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6641,7 +6661,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6680,20 +6700,24 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -6705,12 +6729,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -6777,7 +6801,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6853,7 +6877,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6906,12 +6930,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -6929,7 +6953,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6982,12 +7006,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -7005,7 +7029,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -7210,12 +7234,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -7233,7 +7257,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7309,7 +7333,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7367,7 +7391,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -7385,7 +7409,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7461,7 +7485,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7537,7 +7561,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -7595,7 +7619,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -7613,7 +7637,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -7666,7 +7690,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -7689,7 +7713,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -7742,7 +7766,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -7761,7 +7785,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -7810,7 +7834,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7829,7 +7853,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7878,12 +7902,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -7897,7 +7921,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7951,7 +7975,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -7965,7 +7989,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -8009,17 +8033,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -8033,7 +8057,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8077,15 +8101,19 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -8097,7 +8125,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -8151,7 +8179,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -8169,7 +8197,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8217,15 +8245,19 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
@@ -8241,7 +8273,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8289,12 +8321,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -8317,7 +8349,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -8365,12 +8397,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -8393,7 +8425,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -8446,7 +8478,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8465,7 +8497,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -8514,7 +8546,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8533,7 +8565,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -8582,12 +8614,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -8601,7 +8633,7 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -8645,12 +8677,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -8669,7 +8701,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8717,12 +8749,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8741,7 +8773,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -8789,12 +8821,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8813,7 +8845,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -8861,12 +8893,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -8885,7 +8917,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8933,12 +8965,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8957,7 +8989,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9015,7 +9047,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -9033,7 +9065,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9081,15 +9113,19 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
@@ -9105,7 +9141,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -9153,12 +9189,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -9181,7 +9217,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9614,7 +9650,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9633,7 +9669,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -9682,7 +9718,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9701,7 +9737,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9745,15 +9781,19 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
@@ -9765,7 +9805,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9814,7 +9854,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9833,7 +9873,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9882,12 +9922,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J99" t="b">
@@ -9901,7 +9941,7 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9950,12 +9990,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J100" t="b">
@@ -9969,7 +10009,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -10854,7 +10894,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10873,7 +10913,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -10922,7 +10962,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10941,7 +10981,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -10985,15 +11025,19 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
@@ -11005,7 +11049,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -11054,7 +11098,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -11073,7 +11117,7 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11122,12 +11166,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J116" t="b">
@@ -11141,7 +11185,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -11190,7 +11234,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -11209,7 +11253,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -11889,7 +11933,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -11942,12 +11986,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -11965,7 +12009,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -12018,12 +12062,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J128" t="b">
@@ -12041,7 +12085,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -12094,12 +12138,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J129" t="b">
@@ -12117,7 +12161,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -12170,7 +12214,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -12189,7 +12233,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12238,7 +12282,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12257,7 +12301,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12301,15 +12345,19 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
@@ -12321,7 +12369,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -12365,17 +12413,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -12389,7 +12437,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -12438,12 +12486,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J134" t="b">
@@ -12457,7 +12505,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -12496,7 +12544,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -12506,7 +12554,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -12525,12 +12573,12 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -12597,7 +12645,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -12673,7 +12721,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -12726,12 +12774,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J138" t="b">
@@ -12749,7 +12797,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -12802,12 +12850,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J139" t="b">
@@ -12825,7 +12873,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -13030,12 +13078,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J142" t="b">
@@ -13053,7 +13101,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -13129,7 +13177,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -13187,7 +13235,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -13205,7 +13253,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13281,7 +13329,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -13357,7 +13405,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13415,7 +13463,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -13433,7 +13481,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13486,7 +13534,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13509,7 +13557,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -13562,7 +13610,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -13581,7 +13629,7 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13630,7 +13678,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13649,7 +13697,7 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -13693,15 +13741,19 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J151" t="b">
         <v>0</v>
       </c>
@@ -13713,7 +13765,7 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13757,17 +13809,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J152" t="b">
@@ -13781,7 +13833,7 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13830,12 +13882,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J153" t="b">
@@ -13849,7 +13901,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13898,7 +13950,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13917,7 +13969,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13971,7 +14023,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J155" t="b">
@@ -13989,7 +14041,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -14037,15 +14089,19 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J156" t="b">
         <v>0</v>
       </c>
@@ -14061,7 +14117,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -14109,12 +14165,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -14137,7 +14193,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -14185,12 +14241,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14213,7 +14269,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -14266,7 +14322,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14285,7 +14341,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -14334,7 +14390,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14353,7 +14409,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -14397,15 +14453,19 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J161" t="b">
         <v>0</v>
       </c>
@@ -14417,7 +14477,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -14479,7 +14539,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C101, C102, C305</t>
+          <t>C101, C303, L407</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14556,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14573,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -14530,7 +14590,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101, L406</t>
+          <t>C101, C104, C302</t>
         </is>
       </c>
     </row>
@@ -14564,7 +14624,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, L407</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -14581,7 +14641,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -14598,7 +14658,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -14615,7 +14675,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C101, L402, L403, L405</t>
+          <t>C101, C205, C305, L406, L408</t>
         </is>
       </c>
     </row>
@@ -14632,7 +14692,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, L404, L406</t>
+          <t>C101, C102, L408</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14709,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C104, L405, L407</t>
+          <t>C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -14666,7 +14726,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C202, L406, L408</t>
+          <t>C102, C104, C202</t>
         </is>
       </c>
     </row>
@@ -14683,7 +14743,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C101, C102, C305, L402</t>
+          <t>C101, C205, C302, C305</t>
         </is>
       </c>
     </row>
@@ -14700,7 +14760,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C102, C204</t>
+          <t>C102, C304</t>
         </is>
       </c>
     </row>
@@ -14717,7 +14777,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C104, C302</t>
+          <t>C104, C305</t>
         </is>
       </c>
     </row>
@@ -14734,7 +14794,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C202, C303</t>
+          <t>C202, L402</t>
         </is>
       </c>
     </row>
@@ -15386,12 +15446,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -15419,12 +15479,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -15452,12 +15512,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -15485,12 +15545,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -15589,7 +15649,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -15683,7 +15743,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -15716,7 +15776,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -15749,7 +15809,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -15782,7 +15842,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -16450,12 +16510,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -16483,12 +16543,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -16516,12 +16576,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -16549,12 +16609,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -16653,7 +16713,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -16747,7 +16807,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -16780,7 +16840,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -16813,7 +16873,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -16846,7 +16906,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -17514,12 +17574,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -17547,12 +17607,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -17580,12 +17640,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -17613,12 +17673,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -17717,7 +17777,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -17811,7 +17871,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -17844,7 +17904,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -17877,7 +17937,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -17910,7 +17970,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -18578,12 +18638,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -18611,12 +18671,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -18644,12 +18704,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -18677,12 +18737,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -18781,7 +18841,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -18875,7 +18935,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -18908,7 +18968,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -18941,7 +19001,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -18974,7 +19034,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -19642,12 +19702,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -19675,12 +19735,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -19708,12 +19768,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -19741,12 +19801,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -19845,7 +19905,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -19939,7 +19999,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -19972,7 +20032,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -20005,7 +20065,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -20038,7 +20098,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -20706,12 +20766,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L403]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L405]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -20739,12 +20799,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L404]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L406]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -20772,12 +20832,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L405]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -20805,12 +20865,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30 [L406]</t>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -20909,7 +20969,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -21003,7 +21063,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00 [C102]</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -21036,7 +21096,7 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C204], Thu 15:30-17:00 [C204]</t>
+          <t>Tue 15:30-17:00 [C304], Thu 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -21069,7 +21129,7 @@
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00 [C302]</t>
+          <t>Tue 15:30-17:00 [C305], Thu 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
@@ -21102,7 +21162,7 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C303], Thu 15:30-17:00 [C303]</t>
+          <t>Tue 15:30-17:00 [L402], Thu 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -21549,27 +21609,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C102]</t>
+          <t>Mini Project [C002]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C102]</t>
+          <t>0-0-0-8-2 [C002]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C002]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C002]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C002]</t>
         </is>
       </c>
     </row>
@@ -22031,7 +22091,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -22063,7 +22123,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -22095,7 +22155,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -22127,7 +22187,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -22568,27 +22628,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mini Project [C104]</t>
+          <t>Mini Project [C003]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0-0-0-8-2 [C104]</t>
+          <t>0-0-0-8-2 [C003]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C104]</t>
+          <t>Full Sem [C003]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C003]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C003]</t>
         </is>
       </c>
     </row>
@@ -23050,7 +23110,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -23082,7 +23142,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -23114,7 +23174,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -23146,7 +23206,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue 15:30-17:00 [C102], Thu 15:30-17:00</t>
+          <t>Tue 15:30-17:00 [C302], Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
